--- a/11Abril/cronograma.xlsx
+++ b/11Abril/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PuScH\Desktop\Pós\Cabeamento Estruturado\ProjetoCabeamentoEstruturado\CabeamentoEstruturadoUTFPR\11Abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0965808F-662C-4915-AEDF-108686C2ED07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABB5F4-D2BF-47F6-A935-BDF52DE9054B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{918B8B2B-DE5B-41DF-9A37-72B44A202701}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>INSTALAÇÃO DOS LINKS DE FIBRA ÓTICA OPERADORAS</t>
+  </si>
+  <si>
+    <t>CONFIGURAÇÕES E TESTES</t>
+  </si>
+  <si>
+    <t>TREINAMENTO DA EQUIPE</t>
+  </si>
+  <si>
+    <t>ENTREGA</t>
+  </si>
+  <si>
+    <t>CERTIFICAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -106,12 +118,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -151,6 +169,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0441E8E7-2BD4-463A-AF6B-BE0BF771030B}">
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -476,7 +496,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -553,7 +575,7 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -573,7 +595,7 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -594,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -615,7 +637,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -635,7 +657,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -656,7 +678,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -677,7 +699,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -697,7 +719,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -718,7 +740,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -739,7 +761,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -749,6 +771,9 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -757,7 +782,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -767,7 +792,9 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -776,7 +803,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -785,7 +812,9 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -794,16 +823,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -813,189 +844,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
